--- a/data/连词词表计算/连词非连词个数.xlsx
+++ b/data/连词词表计算/连词非连词个数.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1021,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212:XFD212"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3360,30 +3358,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/连词词表计算/连词非连词个数.xlsx
+++ b/data/连词词表计算/连词非连词个数.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="218">
   <si>
     <t>但</t>
   </si>
@@ -655,6 +656,26 @@
   </si>
   <si>
     <t>连词个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都计算次数&gt;=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占据总次数比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连词歧义性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算去掉歧义性大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歧义性百分比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,13 +707,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -704,21 +738,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,6 +772,2472 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.573478552949942E-2"/>
+          <c:y val="3.9682666997632302E-2"/>
+          <c:w val="0.91426521184582832"/>
+          <c:h val="0.80411103509285453"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>不作为连词占据比例</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$216:$A$246</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$216:$D$246</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.25933296187216431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23665096975017957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23462614954018393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22173180322606531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21141155641397072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19995152690256907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19941634241245138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18155924479166666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15895930185139875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14577712370206852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14076872536136661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14054500412881915</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13104198026425823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12878081843599085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11136930889061021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11195708600103824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11439440856409802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1031348543869412</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10390588235294118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1050228310502283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10825560627108553</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.9804908101447792E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8088044885627968E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4995947041340179E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7097966728280962E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7649864843377324E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8713662790697673E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2769230769230771E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6108417805200526E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1389039609332605E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.3808630393996248E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>作为连词占据比例</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1666672134733879E-2"/>
+                  <c:y val="4.6464648170303206E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$217:$E$246</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.99475982532751095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99285430726478763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98936085748312819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98658197697499006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98277094084954342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97943628423977769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97562524811433105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97348154029376732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9710996427153632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96673283048828895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9614926558157999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94942437475188568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93711790393013106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.922508932115919</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91766574037316395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89741961095672884</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85605398967844382</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84358872568479559</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8346169114728067</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80015879317189365</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77324335053592697</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73584755855498218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58769352917824536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51544263596665341</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49932512901945214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4369988090512108</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.38705835649067089</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36030170702659786</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29265581579992062</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25391028185788012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99234944"/>
+        <c:axId val="99236480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99234944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchor="b" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+                  </a:rPr>
+                  <a:t>连词出现次数</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+                  <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99236480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99236480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="dbl">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+                  </a:rPr>
+                  <a:t>占据比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99234944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77999997112860509"/>
+          <c:y val="6.3650903499087169E-2"/>
+          <c:w val="0.20750002723097472"/>
+          <c:h val="0.1171978250835857"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050">
+              <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>连词歧义性</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41189608296180885"/>
+          <c:y val="1.3888888888888888E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>连词歧义性</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$211</c:f>
+              <c:strCache>
+                <c:ptCount val="210"/>
+                <c:pt idx="0">
+                  <c:v>也</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>还</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>而</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>但</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>如果</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>并</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>因为</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>但是</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>更</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>却</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>又</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>才</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>以及</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>为了</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>虽然</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>由于</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>使</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>甚至</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>并且</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>而且</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>因此</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>之后</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>让</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>目前</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>不过</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>其中</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>除了</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>同时</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>必须</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>包括</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>造成</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>则</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>所以</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>或者</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>如</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>不仅</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>为</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>即使</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>因</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>现在</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>那么</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>当</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>尽管</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>加上</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>当时</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>导致</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>只要</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>仍然</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>然而</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>无论</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>尤其</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>然后</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>以后</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>之外</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>即</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>使得</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>随着</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>若</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>不管</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>另外</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>或是</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>以来</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>及</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>之前</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>后来</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>可是</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>其实</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>当然</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>且</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>如今</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>或许</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>引起</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>虽</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>比如</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>于是</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>例如</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>否则</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>去年</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>因而</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>表示</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>反而</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>结果</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>一旦</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>除非</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>竟然</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>引发</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>以便</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>原因</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>不论</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>从而</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>最后</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>相对</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>既然</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>实际上</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>亦</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>过去</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>譬如</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>与其</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>还有</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>促进</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>此外</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>之所以</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>进而</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>以免</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>接着</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>最近</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>经过</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>基于</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>希望</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>随后</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>目的</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>比起</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>可能</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>居然</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>理由</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>以前</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>随即</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>主要</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>特别</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>其次</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>即便</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>尔后</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>此前</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>不如</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>反倒</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>至于</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>企图</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>至少</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>与此同时</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>原来</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>针对</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>当年</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>预计</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>仅</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>要求</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>以致</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>倘若</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>假如</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>难怪</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>致使</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>曾经</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>看出</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>何况</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>这样</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>接下来</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>证明</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>鉴于</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>哪怕</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>不然</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>只不过</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>故</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>以至</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>同比</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>说明</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>由此</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>先前</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>其后</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>迫使</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>此时</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>偏偏</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>试图</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>显示</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>防止</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>毕竟</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>不同</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>前夕</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>总之</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>指出</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>规定</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>总的来说</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>出于</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>总而言之</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>举凡</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>要是</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>有赖于</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>可见</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>日后</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>表态</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>阐述</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>例外</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>被迫</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>正值</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>免得</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>对照</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>必然</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>反观</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>甚</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>获益</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>继而</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>有的</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>统称</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>表明</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>原先</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>受到</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>目标</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>以下</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>而后</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>来自</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>用于</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>例子</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>相比</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>对比</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>剔除</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>诸如</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>招致</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>看来</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>归纳</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>伴随</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>宣布</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>用以</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$211</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="210"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1039671682626538E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23255813953488372</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5865102639296188</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6774193548387094E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5714285714285715E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.968253968253968E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3859649122807015E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1391304347826087</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86513629842180773</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4913294797687861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13861386138613863</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19230769230769232</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.896103896103896E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.11904761904761904</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.4545454545454543E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.1224489795918366E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.4444444444444446E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.80568720379146919</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.6511627906976744E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.4390243902439025E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7027027027027029E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.70652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.70930232558139539</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.69230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.70769230769230773</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.84158415841584155</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.69444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.79245283018867929</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.23076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.69696969696969702</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.96885813148788924</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.92592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.8904109589041096</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.58823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.88235294117647056</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.82857142857142863</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.95495495495495497</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.971830985915493</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.90476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.98333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.95238095238095233</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.97014925373134331</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.98684210526315785</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187536896"/>
+        <c:axId val="187532032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187536896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="211"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187532032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187532032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="dbl">
+              <a:noFill/>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187536896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9920138155336726E-2"/>
+          <c:y val="6.0195089089602749E-2"/>
+          <c:w val="0.88434887243194316"/>
+          <c:h val="0.72265484753568632"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1092230622412719E-2"/>
+                  <c:y val="5.2517641999226712E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2105255402632928E-2"/>
+                  <c:y val="4.879575242153724E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$218:$A$235</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$218:$C$235</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.7182215164747916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77919809448193733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82778880508138153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85057562524811436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85565700674870981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88233425962683609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90631202858277093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91464867010718542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94164350932909879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94180230250099251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94204049225883291</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94251687177451371</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95212385867407701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96474791583961894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97491067884080984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97903930131004369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99539499801508535</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99817387852322348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="254669184"/>
+        <c:axId val="254670720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="254669184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+                  </a:rPr>
+                  <a:t>连词歧义性百分比</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="254670720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254670720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cmpd="dbl">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:latin typeface="楷体" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="楷体" pitchFamily="49" charset="-122"/>
+                  </a:rPr>
+                  <a:t>连词占据比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="254669184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314741</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>24846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>372718</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>654327</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>40585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>828</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322383</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>65941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>49089</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,19 +3527,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -1039,8 +3552,11 @@
       <c r="C1" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1050,8 +3566,12 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <f>C2/(B2+C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1061,8 +3581,12 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">C3/(B3+C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1072,8 +3596,12 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.1039671682626538E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +3611,12 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1094,8 +3626,12 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1105,8 +3641,12 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1116,8 +3656,12 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +3671,12 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1138,8 +3686,12 @@
       <c r="C10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.23255813953488372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +3701,12 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1160,8 +3716,12 @@
       <c r="C12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1171,8 +3731,12 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1182,8 +3746,12 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1193,8 +3761,12 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1204,8 +3776,12 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1215,8 +3791,12 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1226,8 +3806,12 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1237,8 +3821,12 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1248,8 +3836,12 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1259,8 +3851,12 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1270,8 +3866,12 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1281,8 +3881,12 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1292,8 +3896,12 @@
       <c r="C24" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.5865102639296188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -1303,8 +3911,12 @@
       <c r="C25" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1314,8 +3926,12 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1325,8 +3941,12 @@
       <c r="C27" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1336,8 +3956,12 @@
       <c r="C28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1347,8 +3971,12 @@
       <c r="C29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>3.968253968253968E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1358,8 +3986,12 @@
       <c r="C30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1369,8 +4001,12 @@
       <c r="C31" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>4.3859649122807015E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1380,8 +4016,12 @@
       <c r="C32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1391,8 +4031,12 @@
       <c r="C33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1402,8 +4046,12 @@
       <c r="C34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1413,8 +4061,12 @@
       <c r="C35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +4076,12 @@
       <c r="C36" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.1391304347826087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1435,8 +4091,12 @@
       <c r="C37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1446,8 +4106,12 @@
       <c r="C38" s="1">
         <v>603</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.86513629842180773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1457,8 +4121,12 @@
       <c r="C39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1468,8 +4136,12 @@
       <c r="C40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1479,8 +4151,12 @@
       <c r="C41" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.4913294797687861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -1490,8 +4166,12 @@
       <c r="C42" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.13861386138613863</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1501,8 +4181,12 @@
       <c r="C43" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1512,8 +4196,12 @@
       <c r="C44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1523,8 +4211,12 @@
       <c r="C45" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>3.896103896103896E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -1534,8 +4226,12 @@
       <c r="C46" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1545,8 +4241,12 @@
       <c r="C47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1556,8 +4256,12 @@
       <c r="C48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -1567,8 +4271,12 @@
       <c r="C49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1578,8 +4286,12 @@
       <c r="C50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -1589,8 +4301,12 @@
       <c r="C51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -1600,8 +4316,12 @@
       <c r="C52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -1611,8 +4331,12 @@
       <c r="C53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -1622,8 +4346,12 @@
       <c r="C54" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -1633,8 +4361,12 @@
       <c r="C55" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -1644,8 +4376,12 @@
       <c r="C56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1655,8 +4391,12 @@
       <c r="C57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -1666,8 +4406,12 @@
       <c r="C58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -1677,8 +4421,12 @@
       <c r="C59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -1688,8 +4436,12 @@
       <c r="C60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1699,8 +4451,12 @@
       <c r="C61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -1710,8 +4466,12 @@
       <c r="C62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -1721,8 +4481,12 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -1732,8 +4496,12 @@
       <c r="C64" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.80568720379146919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -1743,8 +4511,12 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>4.6511627906976744E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -1754,8 +4526,12 @@
       <c r="C66" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>6.8181818181818177E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1765,8 +4541,12 @@
       <c r="C67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="1">C67/(B67+C67)</f>
+        <v>2.4390243902439025E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -1776,8 +4556,12 @@
       <c r="C68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -1787,8 +4571,12 @@
       <c r="C69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -1798,8 +4586,12 @@
       <c r="C70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -1809,8 +4601,12 @@
       <c r="C71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -1820,8 +4616,12 @@
       <c r="C72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -1831,8 +4631,12 @@
       <c r="C73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -1842,8 +4646,12 @@
       <c r="C74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -1853,8 +4661,12 @@
       <c r="C75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -1864,8 +4676,12 @@
       <c r="C76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -1875,8 +4691,12 @@
       <c r="C77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -1886,8 +4706,12 @@
       <c r="C78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -1897,8 +4721,12 @@
       <c r="C79" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0.70652173913043481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -1908,8 +4736,12 @@
       <c r="C80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -1919,8 +4751,12 @@
       <c r="C81" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>57</v>
       </c>
@@ -1930,8 +4766,12 @@
       <c r="C82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -1941,8 +4781,12 @@
       <c r="C83" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>0.70930232558139539</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -1952,8 +4796,12 @@
       <c r="C84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>71</v>
       </c>
@@ -1963,8 +4811,12 @@
       <c r="C85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -1974,8 +4826,12 @@
       <c r="C86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -1985,8 +4841,12 @@
       <c r="C87" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>55</v>
       </c>
@@ -1996,8 +4856,12 @@
       <c r="C88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -2007,8 +4871,12 @@
       <c r="C89" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -2018,8 +4886,12 @@
       <c r="C90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -2029,8 +4901,12 @@
       <c r="C91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2040,8 +4916,12 @@
       <c r="C92" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>0.70769230769230773</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -2051,8 +4931,12 @@
       <c r="C93" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>68</v>
       </c>
@@ -2062,8 +4946,12 @@
       <c r="C94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -2073,8 +4961,12 @@
       <c r="C95" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -2084,8 +4976,12 @@
       <c r="C96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -2095,8 +4991,12 @@
       <c r="C97" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>0.84158415841584155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -2106,8 +5006,12 @@
       <c r="C98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -2117,8 +5021,12 @@
       <c r="C99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>82</v>
       </c>
@@ -2128,8 +5036,12 @@
       <c r="C100" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -2139,8 +5051,12 @@
       <c r="C101" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>77</v>
       </c>
@@ -2150,8 +5066,12 @@
       <c r="C102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -2161,8 +5081,12 @@
       <c r="C103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2172,8 +5096,12 @@
       <c r="C104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -2183,8 +5111,12 @@
       <c r="C105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -2194,8 +5126,12 @@
       <c r="C106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -2205,8 +5141,12 @@
       <c r="C107" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -2216,8 +5156,12 @@
       <c r="C108" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>0.79245283018867929</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>199</v>
       </c>
@@ -2227,8 +5171,12 @@
       <c r="C109" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -2238,8 +5186,12 @@
       <c r="C110" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>65</v>
       </c>
@@ -2249,8 +5201,12 @@
       <c r="C111" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>67</v>
       </c>
@@ -2260,8 +5216,12 @@
       <c r="C112" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -2271,8 +5231,12 @@
       <c r="C113" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>105</v>
       </c>
@@ -2282,8 +5246,12 @@
       <c r="C114" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>0.96885813148788924</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -2293,8 +5261,12 @@
       <c r="C115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>74</v>
       </c>
@@ -2304,8 +5276,12 @@
       <c r="C116" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -2315,8 +5291,12 @@
       <c r="C117" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>94</v>
       </c>
@@ -2326,8 +5306,12 @@
       <c r="C118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>95</v>
       </c>
@@ -2337,8 +5321,12 @@
       <c r="C119" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>112</v>
       </c>
@@ -2348,8 +5336,12 @@
       <c r="C120" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>0.8904109589041096</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>168</v>
       </c>
@@ -2359,8 +5351,12 @@
       <c r="C121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -2370,8 +5366,12 @@
       <c r="C122" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -2381,8 +5381,12 @@
       <c r="C123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -2392,8 +5396,12 @@
       <c r="C124" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>167</v>
       </c>
@@ -2403,8 +5411,12 @@
       <c r="C125" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>173</v>
       </c>
@@ -2414,8 +5426,12 @@
       <c r="C126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>182</v>
       </c>
@@ -2425,8 +5441,12 @@
       <c r="C127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>90</v>
       </c>
@@ -2436,8 +5456,12 @@
       <c r="C128" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -2447,8 +5471,12 @@
       <c r="C129" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>100</v>
       </c>
@@ -2458,8 +5486,12 @@
       <c r="C130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -2469,8 +5501,12 @@
       <c r="C131" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="2">C131/(B131+C131)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -2480,8 +5516,12 @@
       <c r="C132" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>0.82857142857142863</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -2491,8 +5531,12 @@
       <c r="C133" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -2502,8 +5546,12 @@
       <c r="C134" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>159</v>
       </c>
@@ -2513,8 +5561,12 @@
       <c r="C135" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>80</v>
       </c>
@@ -2524,8 +5576,12 @@
       <c r="C136" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>0.95495495495495497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>91</v>
       </c>
@@ -2535,8 +5591,12 @@
       <c r="C137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>96</v>
       </c>
@@ -2546,8 +5606,12 @@
       <c r="C138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>106</v>
       </c>
@@ -2557,8 +5621,12 @@
       <c r="C139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -2568,8 +5636,12 @@
       <c r="C140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -2579,8 +5651,12 @@
       <c r="C141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>197</v>
       </c>
@@ -2590,8 +5666,12 @@
       <c r="C142" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>109</v>
       </c>
@@ -2601,8 +5681,12 @@
       <c r="C143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>113</v>
       </c>
@@ -2612,8 +5696,12 @@
       <c r="C144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -2623,8 +5711,12 @@
       <c r="C145" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>0.971830985915493</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>117</v>
       </c>
@@ -2634,8 +5726,12 @@
       <c r="C146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -2645,8 +5741,12 @@
       <c r="C147" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>121</v>
       </c>
@@ -2656,8 +5756,12 @@
       <c r="C148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>122</v>
       </c>
@@ -2667,8 +5771,12 @@
       <c r="C149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>133</v>
       </c>
@@ -2678,8 +5786,12 @@
       <c r="C150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>193</v>
       </c>
@@ -2689,8 +5801,12 @@
       <c r="C151" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>202</v>
       </c>
@@ -2700,8 +5816,12 @@
       <c r="C152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>203</v>
       </c>
@@ -2711,8 +5831,12 @@
       <c r="C153" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>102</v>
       </c>
@@ -2722,8 +5846,12 @@
       <c r="C154" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>114</v>
       </c>
@@ -2733,8 +5861,12 @@
       <c r="C155" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>139</v>
       </c>
@@ -2744,8 +5876,12 @@
       <c r="C156" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>144</v>
       </c>
@@ -2755,8 +5891,12 @@
       <c r="C157" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -2766,8 +5906,12 @@
       <c r="C158" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -2777,8 +5921,12 @@
       <c r="C159" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>186</v>
       </c>
@@ -2788,8 +5936,12 @@
       <c r="C160" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>198</v>
       </c>
@@ -2799,8 +5951,12 @@
       <c r="C161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>110</v>
       </c>
@@ -2810,8 +5966,12 @@
       <c r="C162" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>111</v>
       </c>
@@ -2821,8 +5981,12 @@
       <c r="C163" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>115</v>
       </c>
@@ -2832,8 +5996,12 @@
       <c r="C164" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>119</v>
       </c>
@@ -2843,8 +6011,12 @@
       <c r="C165" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>120</v>
       </c>
@@ -2854,8 +6026,12 @@
       <c r="C166" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>128</v>
       </c>
@@ -2865,8 +6041,12 @@
       <c r="C167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>130</v>
       </c>
@@ -2876,8 +6056,12 @@
       <c r="C168" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>131</v>
       </c>
@@ -2887,8 +6071,12 @@
       <c r="C169" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>134</v>
       </c>
@@ -2898,8 +6086,12 @@
       <c r="C170" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -2909,8 +6101,12 @@
       <c r="C171" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>161</v>
       </c>
@@ -2920,8 +6116,12 @@
       <c r="C172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>163</v>
       </c>
@@ -2931,8 +6131,12 @@
       <c r="C173" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>170</v>
       </c>
@@ -2942,8 +6146,12 @@
       <c r="C174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -2953,8 +6161,12 @@
       <c r="C175" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -2964,8 +6176,12 @@
       <c r="C176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -2975,8 +6191,12 @@
       <c r="C177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>208</v>
       </c>
@@ -2986,8 +6206,12 @@
       <c r="C178" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>135</v>
       </c>
@@ -2997,8 +6221,12 @@
       <c r="C179" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>136</v>
       </c>
@@ -3008,8 +6236,12 @@
       <c r="C180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>138</v>
       </c>
@@ -3019,8 +6251,12 @@
       <c r="C181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>140</v>
       </c>
@@ -3030,8 +6266,12 @@
       <c r="C182" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -3041,8 +6281,12 @@
       <c r="C183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>142</v>
       </c>
@@ -3052,8 +6296,12 @@
       <c r="C184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>145</v>
       </c>
@@ -3063,8 +6311,12 @@
       <c r="C185" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>147</v>
       </c>
@@ -3074,8 +6326,12 @@
       <c r="C186" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>155</v>
       </c>
@@ -3085,8 +6341,12 @@
       <c r="C187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>156</v>
       </c>
@@ -3096,8 +6356,12 @@
       <c r="C188" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>157</v>
       </c>
@@ -3107,8 +6371,12 @@
       <c r="C189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>158</v>
       </c>
@@ -3118,8 +6386,12 @@
       <c r="C190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3129,8 +6401,12 @@
       <c r="C191" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>164</v>
       </c>
@@ -3140,8 +6416,12 @@
       <c r="C192" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>165</v>
       </c>
@@ -3151,8 +6431,12 @@
       <c r="C193" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>171</v>
       </c>
@@ -3162,8 +6446,12 @@
       <c r="C194" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>172</v>
       </c>
@@ -3173,8 +6461,12 @@
       <c r="C195" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D195">
+        <f t="shared" ref="D195:D211" si="3">C195/(B195+C195)</f>
+        <v>0.98684210526315785</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>178</v>
       </c>
@@ -3184,8 +6476,12 @@
       <c r="C196" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>183</v>
       </c>
@@ -3195,8 +6491,12 @@
       <c r="C197" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -3206,8 +6506,12 @@
       <c r="C198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -3217,8 +6521,12 @@
       <c r="C199" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>189</v>
       </c>
@@ -3228,8 +6536,12 @@
       <c r="C200" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>190</v>
       </c>
@@ -3239,8 +6551,12 @@
       <c r="C201" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -3250,8 +6566,12 @@
       <c r="C202" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>194</v>
       </c>
@@ -3261,8 +6581,12 @@
       <c r="C203" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>200</v>
       </c>
@@ -3272,8 +6596,12 @@
       <c r="C204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>201</v>
       </c>
@@ -3283,8 +6611,12 @@
       <c r="C205" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -3294,8 +6626,12 @@
       <c r="C206" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -3305,8 +6641,12 @@
       <c r="C207" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -3316,8 +6656,12 @@
       <c r="C208" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -3327,8 +6671,12 @@
       <c r="C209" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3338,8 +6686,12 @@
       <c r="C210" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>177</v>
       </c>
@@ -3348,6 +6700,685 @@
       </c>
       <c r="C211" s="1">
         <v>1</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D212">
+        <f>AVERAGE(D2:D211)</f>
+        <v>0.29495456672666348</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <f>SUM(B2:B211)</f>
+        <v>12595</v>
+      </c>
+      <c r="C215" s="2">
+        <f>SUM(C2:C211)</f>
+        <v>3656</v>
+      </c>
+      <c r="D215" s="2">
+        <f>C215/B215</f>
+        <v>0.29027391822151649</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>2</v>
+      </c>
+      <c r="B216" s="2">
+        <f>SUM(B2:B178)</f>
+        <v>12563</v>
+      </c>
+      <c r="C216" s="2">
+        <f>SUM(C2:C178)</f>
+        <v>3258</v>
+      </c>
+      <c r="D216" s="2">
+        <f t="shared" ref="D216:D218" si="4">C216/B216</f>
+        <v>0.25933296187216431</v>
+      </c>
+      <c r="E216" s="2">
+        <f>B216/$B$215</f>
+        <v>0.99745930924970228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>3</v>
+      </c>
+      <c r="B217" s="2">
+        <v>12529</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2965</v>
+      </c>
+      <c r="D217" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23665096975017957</v>
+      </c>
+      <c r="E217" s="2">
+        <f t="shared" ref="E217:E246" si="5">B217/$B$215</f>
+        <v>0.99475982532751095</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>4</v>
+      </c>
+      <c r="B218" s="2">
+        <f>SUM(B2:B153)</f>
+        <v>12505</v>
+      </c>
+      <c r="C218" s="2">
+        <f>SUM(C2:C153)</f>
+        <v>2934</v>
+      </c>
+      <c r="D218" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23462614954018393</v>
+      </c>
+      <c r="E218" s="2">
+        <f t="shared" si="5"/>
+        <v>0.99285430726478763</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <f>SUM(B2:B142)</f>
+        <v>12461</v>
+      </c>
+      <c r="C219" s="1">
+        <f>SUM(C2:C142)</f>
+        <v>2763</v>
+      </c>
+      <c r="D219" s="2">
+        <f>C219/B219</f>
+        <v>0.22173180322606531</v>
+      </c>
+      <c r="E219" s="2">
+        <f t="shared" si="5"/>
+        <v>0.98936085748312819</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>6</v>
+      </c>
+      <c r="B220">
+        <f>SUM(B2:B135)</f>
+        <v>12426</v>
+      </c>
+      <c r="C220" s="1">
+        <f>SUM(C2:C135)</f>
+        <v>2627</v>
+      </c>
+      <c r="D220" s="2">
+        <f>C220/B220</f>
+        <v>0.21141155641397072</v>
+      </c>
+      <c r="E220" s="2">
+        <f t="shared" si="5"/>
+        <v>0.98658197697499006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>7</v>
+      </c>
+      <c r="B221">
+        <f>SUM(B2:B127)</f>
+        <v>12378</v>
+      </c>
+      <c r="C221">
+        <f>SUM(C2:C127)</f>
+        <v>2475</v>
+      </c>
+      <c r="D221" s="2">
+        <f t="shared" ref="D221:D246" si="6">C221/B221</f>
+        <v>0.19995152690256907</v>
+      </c>
+      <c r="E221" s="2">
+        <f t="shared" si="5"/>
+        <v>0.98277094084954342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <f>SUM(B2:B121)</f>
+        <v>12336</v>
+      </c>
+      <c r="C222">
+        <f>SUM(C2:C121)</f>
+        <v>2460</v>
+      </c>
+      <c r="D222" s="2">
+        <f t="shared" si="6"/>
+        <v>0.19941634241245138</v>
+      </c>
+      <c r="E222" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97943628423977769</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>9</v>
+      </c>
+      <c r="B223">
+        <f>SUM(B2:B115)</f>
+        <v>12288</v>
+      </c>
+      <c r="C223">
+        <f>SUM(C2:C115)</f>
+        <v>2231</v>
+      </c>
+      <c r="D223" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18155924479166666</v>
+      </c>
+      <c r="E223" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97562524811433105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>10</v>
+      </c>
+      <c r="B224">
+        <f>SUM(B2:B112)</f>
+        <v>12261</v>
+      </c>
+      <c r="C224">
+        <f>SUM(C2:C112)</f>
+        <v>1949</v>
+      </c>
+      <c r="D224" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15895930185139875</v>
+      </c>
+      <c r="E224" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97348154029376732</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>11</v>
+      </c>
+      <c r="B225">
+        <f>SUM(B2:B109)</f>
+        <v>12231</v>
+      </c>
+      <c r="C225">
+        <f>SUM(C2:C109)</f>
+        <v>1783</v>
+      </c>
+      <c r="D225" s="2">
+        <f t="shared" si="6"/>
+        <v>0.14577712370206852</v>
+      </c>
+      <c r="E225" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9710996427153632</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>12</v>
+      </c>
+      <c r="B226">
+        <f>SUM(B2:B104)</f>
+        <v>12176</v>
+      </c>
+      <c r="C226">
+        <f>SUM(C2:C104)</f>
+        <v>1714</v>
+      </c>
+      <c r="D226" s="2">
+        <f t="shared" si="6"/>
+        <v>0.14076872536136661</v>
+      </c>
+      <c r="E226" s="2">
+        <f t="shared" si="5"/>
+        <v>0.96673283048828895</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>15</v>
+      </c>
+      <c r="B227">
+        <f>SUM(B2:B99)</f>
+        <v>12110</v>
+      </c>
+      <c r="C227">
+        <f>SUM(C2:C99)</f>
+        <v>1702</v>
+      </c>
+      <c r="D227" s="2">
+        <f t="shared" si="6"/>
+        <v>0.14054500412881915</v>
+      </c>
+      <c r="E227" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9614926558157999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>20</v>
+      </c>
+      <c r="B228">
+        <f>SUM(B2:B90)</f>
+        <v>11958</v>
+      </c>
+      <c r="C228">
+        <f>SUM(C2:C90)</f>
+        <v>1567</v>
+      </c>
+      <c r="D228" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13104198026425823</v>
+      </c>
+      <c r="E228" s="2">
+        <f t="shared" si="5"/>
+        <v>0.94942437475188568</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>25</v>
+      </c>
+      <c r="B229">
+        <f>SUM(B2:B83)</f>
+        <v>11803</v>
+      </c>
+      <c r="C229">
+        <f>SUM(C2:C83)</f>
+        <v>1520</v>
+      </c>
+      <c r="D229" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12878081843599085</v>
+      </c>
+      <c r="E229" s="2">
+        <f t="shared" si="5"/>
+        <v>0.93711790393013106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>30</v>
+      </c>
+      <c r="B230">
+        <f>SUM(B2:B76)</f>
+        <v>11619</v>
+      </c>
+      <c r="C230">
+        <f>SUM(C2:C76)</f>
+        <v>1294</v>
+      </c>
+      <c r="D230" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11136930889061021</v>
+      </c>
+      <c r="E230" s="2">
+        <f t="shared" si="5"/>
+        <v>0.922508932115919</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>35</v>
+      </c>
+      <c r="B231">
+        <f>SUM(B2:B74)</f>
+        <v>11558</v>
+      </c>
+      <c r="C231">
+        <f>SUM(C2:C74)</f>
+        <v>1294</v>
+      </c>
+      <c r="D231" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11195708600103824</v>
+      </c>
+      <c r="E231" s="2">
+        <f t="shared" si="5"/>
+        <v>0.91766574037316395</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>40</v>
+      </c>
+      <c r="B232">
+        <f>SUM(B2:B67)</f>
+        <v>11303</v>
+      </c>
+      <c r="C232">
+        <f>SUM(C2:C67)</f>
+        <v>1293</v>
+      </c>
+      <c r="D232" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11439440856409802</v>
+      </c>
+      <c r="E232" s="2">
+        <f t="shared" si="5"/>
+        <v>0.89741961095672884</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>50</v>
+      </c>
+      <c r="B233">
+        <f>SUM(B2:B55)</f>
+        <v>10782</v>
+      </c>
+      <c r="C233">
+        <f>SUM(C2:C55)</f>
+        <v>1112</v>
+      </c>
+      <c r="D233" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1031348543869412</v>
+      </c>
+      <c r="E233" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85605398967844382</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>60</v>
+      </c>
+      <c r="B234">
+        <f>SUM(B2:B52)</f>
+        <v>10625</v>
+      </c>
+      <c r="C234">
+        <f>SUM(C2:C52)</f>
+        <v>1104</v>
+      </c>
+      <c r="D234" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10390588235294118</v>
+      </c>
+      <c r="E234" s="2">
+        <f t="shared" si="5"/>
+        <v>0.84358872568479559</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>70</v>
+      </c>
+      <c r="B235">
+        <f>SUM(B2:B50)</f>
+        <v>10512</v>
+      </c>
+      <c r="C235">
+        <f>SUM(C2:C50)</f>
+        <v>1104</v>
+      </c>
+      <c r="D235" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1050228310502283</v>
+      </c>
+      <c r="E235" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8346169114728067</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>80</v>
+      </c>
+      <c r="B236">
+        <f>SUM(B2:B44)</f>
+        <v>10078</v>
+      </c>
+      <c r="C236">
+        <f>SUM(C2:C44)</f>
+        <v>1091</v>
+      </c>
+      <c r="D236" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10825560627108553</v>
+      </c>
+      <c r="E236" s="2">
+        <f t="shared" si="5"/>
+        <v>0.80015879317189365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>90</v>
+      </c>
+      <c r="B237">
+        <f>SUM(B2:B40)</f>
+        <v>9739</v>
+      </c>
+      <c r="C237">
+        <f>SUM(C2:C40)</f>
+        <v>972</v>
+      </c>
+      <c r="D237" s="2">
+        <f t="shared" si="6"/>
+        <v>9.9804908101447792E-2</v>
+      </c>
+      <c r="E237" s="2">
+        <f t="shared" si="5"/>
+        <v>0.77324335053592697</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>100</v>
+      </c>
+      <c r="B238">
+        <f>SUM(B2:B35)</f>
+        <v>9268</v>
+      </c>
+      <c r="C238">
+        <f>SUM(C2:C35)</f>
+        <v>353</v>
+      </c>
+      <c r="D238" s="2">
+        <f t="shared" si="6"/>
+        <v>3.8088044885627968E-2</v>
+      </c>
+      <c r="E238" s="2">
+        <f t="shared" si="5"/>
+        <v>0.73584755855498218</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>150</v>
+      </c>
+      <c r="B239">
+        <f>SUM(B2:B20)</f>
+        <v>7402</v>
+      </c>
+      <c r="C239">
+        <f>SUM(C2:C20)</f>
+        <v>111</v>
+      </c>
+      <c r="D239" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4995947041340179E-2</v>
+      </c>
+      <c r="E239" s="2">
+        <f t="shared" si="5"/>
+        <v>0.58769352917824536</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>200</v>
+      </c>
+      <c r="B240">
+        <f>SUM(B2:B15)</f>
+        <v>6492</v>
+      </c>
+      <c r="C240">
+        <f>SUM(C2:C15)</f>
+        <v>111</v>
+      </c>
+      <c r="D240" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7097966728280962E-2</v>
+      </c>
+      <c r="E240" s="2">
+        <f t="shared" si="5"/>
+        <v>0.51544263596665341</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>250</v>
+      </c>
+      <c r="B241">
+        <f>SUM(B2:B14)</f>
+        <v>6289</v>
+      </c>
+      <c r="C241">
+        <f>SUM(C2:C14)</f>
+        <v>111</v>
+      </c>
+      <c r="D241" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7649864843377324E-2</v>
+      </c>
+      <c r="E241" s="2">
+        <f t="shared" si="5"/>
+        <v>0.49932512901945214</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>300</v>
+      </c>
+      <c r="B242">
+        <f>SUM(B2:B11)</f>
+        <v>5504</v>
+      </c>
+      <c r="C242">
+        <f>SUM(C2:C11)</f>
+        <v>103</v>
+      </c>
+      <c r="D242" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8713662790697673E-2</v>
+      </c>
+      <c r="E242" s="2">
+        <f t="shared" si="5"/>
+        <v>0.4369988090512108</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <v>350</v>
+      </c>
+      <c r="B243">
+        <f>SUM(B2:B9)</f>
+        <v>4875</v>
+      </c>
+      <c r="C243">
+        <f>SUM(C2:C19)</f>
+        <v>111</v>
+      </c>
+      <c r="D243" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2769230769230771E-2</v>
+      </c>
+      <c r="E243" s="2">
+        <f t="shared" si="5"/>
+        <v>0.38705835649067089</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <v>400</v>
+      </c>
+      <c r="B244">
+        <f>SUM(B2:B8)</f>
+        <v>4538</v>
+      </c>
+      <c r="C244">
+        <f>SUM(C2:C8)</f>
+        <v>3</v>
+      </c>
+      <c r="D244" s="2">
+        <f t="shared" si="6"/>
+        <v>6.6108417805200526E-4</v>
+      </c>
+      <c r="E244" s="2">
+        <f t="shared" si="5"/>
+        <v>0.36030170702659786</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <v>450</v>
+      </c>
+      <c r="B245">
+        <f>SUM(B2:B6)</f>
+        <v>3686</v>
+      </c>
+      <c r="C245">
+        <f>SUM(C2:C6)</f>
+        <v>3</v>
+      </c>
+      <c r="D245" s="2">
+        <f t="shared" si="6"/>
+        <v>8.1389039609332605E-4</v>
+      </c>
+      <c r="E245" s="2">
+        <f t="shared" si="5"/>
+        <v>0.29265581579992062</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <v>500</v>
+      </c>
+      <c r="B246">
+        <f>SUM(B2:B5)</f>
+        <v>3198</v>
+      </c>
+      <c r="C246">
+        <f>SUM(C2:C5)</f>
+        <v>3</v>
+      </c>
+      <c r="D246" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3808630393996248E-4</v>
+      </c>
+      <c r="E246" s="2">
+        <f t="shared" si="5"/>
+        <v>0.25391028185788012</v>
       </c>
     </row>
   </sheetData>
@@ -3357,5 +7388,3453 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D235"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1170</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>C4/(B4+C4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>737</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>C5/(B5+C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>563</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>C6/(B6+C6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>488</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>C7/(B7+C7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>441</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>C8/(B8+C8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>411</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>C9/(B9+C9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>337</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>C10/(B10+C10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>299</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>C11/(B11+C11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>263</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>C12/(B12+C12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>C13/(B13+C13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>203</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>C14/(B14+C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>197</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>C15/(B15+C15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>188</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>C16/(B16+C16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>183</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>C17/(B17+C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>173</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>C18/(B18+C18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>169</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>C19/(B19+C19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>148</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>C20/(B20+C20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>144</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>C21/(B21+C21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>C22/(B22+C22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>C23/(B23+C23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>C24/(B24+C24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>C25/(B25+C25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>C26/(B26+C26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>C27/(B27+C27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>C28/(B28+C28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>C29/(B29+C29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>C30/(B30+C30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>C31/(B31+C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>C32/(B32+C32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>C33/(B33+C33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>C34/(B34+C34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>C35/(B35+C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>C36/(B36+C36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>C37/(B37+C37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>C38/(B38+C38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>C39/(B39+C39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>C40/(B40+C40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>C41/(B41+C41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>C42/(B42+C42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>C43/(B43+C43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>C44/(B44+C44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>C45/(B45+C45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>C46/(B46+C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>C47/(B47+C47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f>C48/(B48+C48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>C49/(B49+C49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>C50/(B50+C50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51">
+        <v>35</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f>C51/(B51+C51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>31</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f>C52/(B52+C52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>C53/(B53+C53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54">
+        <v>28</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>C54/(B54+C54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>C55/(B55+C55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f>C56/(B56+C56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>C57/(B57+C57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>C58/(B58+C58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>C59/(B59+C59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60">
+        <v>23</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f>C60/(B60+C60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f>C61/(B61+C61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f>C62/(B62+C62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f>C63/(B63+C63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f>C64/(B64+C64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f>C65/(B65+C65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f>C66/(B66+C66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f>C67/(B67+C67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f>C68/(B68+C68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f>C69/(B69+C69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f>C70/(B70+C70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f>C71/(B71+C71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f>C72/(B72+C72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f>C73/(B73+C73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f>C74/(B74+C74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>C75/(B75+C75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f>C76/(B76+C76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f>C77/(B77+C77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f>C78/(B78+C78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f>C79/(B79+C79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f>C80/(B80+C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f>C81/(B81+C81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f>C82/(B82+C82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f>C83/(B83+C83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f>C84/(B84+C84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f>C85/(B85+C85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f>C86/(B86+C86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f>C87/(B87+C87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f>C88/(B88+C88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f>C89/(B89+C89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f>C90/(B90+C90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f>C91/(B91+C91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f>C92/(B92+C92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f>C93/(B93+C93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f>C94/(B94+C94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <f>C95/(B95+C95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f>C96/(B96+C96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <f>C97/(B97+C97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f>C98/(B98+C98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <f>C99/(B99+C99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <f>C100/(B100+C100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <f>C101/(B101+C101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <f>C102/(B102+C102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <f>C103/(B103+C103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <f>C104/(B104+C104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <f>C105/(B105+C105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>728</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <f>C106/(B106+C106)</f>
+        <v>4.1039671682626538E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107">
+        <v>40</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <f>C107/(B107+C107)</f>
+        <v>2.4390243902439025E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108">
+        <v>36</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <f>C108/(B108+C108)</f>
+        <v>2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109">
+        <v>272</v>
+      </c>
+      <c r="C109" s="1">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <f>C109/(B109+C109)</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110">
+        <v>74</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <f>C110/(B110+C110)</f>
+        <v>3.896103896103896E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111">
+        <v>121</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <f>C111/(B111+C111)</f>
+        <v>3.968253968253968E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112">
+        <v>109</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <f>C112/(B112+C112)</f>
+        <v>4.3859649122807015E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113">
+        <v>43</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <f>C113/(B113+C113)</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114">
+        <v>105</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <f>C114/(B114+C114)</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115">
+        <v>41</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <f>C115/(B115+C115)</f>
+        <v>4.6511627906976744E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116">
+        <v>52</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <f>C116/(B116+C116)</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117">
+        <v>46</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <f>C117/(B117+C117)</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118">
+        <v>41</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <f>C118/(B118+C118)</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119">
+        <v>23</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <f>C119/(B119+C119)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>128</v>
+      </c>
+      <c r="C120" s="1">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <f>C120/(B120+C120)</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="C121" s="1">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <f>C121/(B121+C121)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122">
+        <v>140</v>
+      </c>
+      <c r="C122" s="1">
+        <v>15</v>
+      </c>
+      <c r="D122">
+        <f>C122/(B122+C122)</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>18</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <f>C123/(B123+C123)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <f>C124/(B124+C124)</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125">
+        <v>74</v>
+      </c>
+      <c r="C125" s="1">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <f>C125/(B125+C125)</f>
+        <v>0.11904761904761904</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <f>C126/(B126+C126)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127">
+        <v>87</v>
+      </c>
+      <c r="C127" s="1">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <f>C127/(B127+C127)</f>
+        <v>0.13861386138613863</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128">
+        <v>99</v>
+      </c>
+      <c r="C128" s="1">
+        <v>16</v>
+      </c>
+      <c r="D128">
+        <f>C128/(B128+C128)</f>
+        <v>0.1391304347826087</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <f>C129/(B129+C129)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <f>C130/(B130+C130)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131">
+        <v>84</v>
+      </c>
+      <c r="C131" s="1">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <f>C131/(B131+C131)</f>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <f>C132/(B132+C132)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <f>C133/(B133+C133)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <f>C134/(B134+C134)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <f>C135/(B135+C135)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136">
+        <v>330</v>
+      </c>
+      <c r="C136" s="1">
+        <v>100</v>
+      </c>
+      <c r="D136">
+        <f>C136/(B136+C136)</f>
+        <v>0.23255813953488372</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <f>C137/(B137+C137)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <f>C138/(B138+C138)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <f>C139/(B139+C139)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <f>C140/(B140+C140)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <f>C141/(B141+C141)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>137</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <f>C142/(B142+C142)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143">
+        <v>88</v>
+      </c>
+      <c r="C143" s="1">
+        <v>85</v>
+      </c>
+      <c r="D143">
+        <f>C143/(B143+C143)</f>
+        <v>0.4913294797687861</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <f>C144/(B144+C144)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <f>C145/(B145+C145)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <f>C146/(B146+C146)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <f>C147/(B147+C147)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <f>C148/(B148+C148)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <f>C149/(B149+C149)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <f>C150/(B150+C150)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>90</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" s="1">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <f>C151/(B151+C151)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>102</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <f>C152/(B152+C152)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153">
+        <v>141</v>
+      </c>
+      <c r="C153" s="1">
+        <v>200</v>
+      </c>
+      <c r="D153">
+        <f>C153/(B153+C153)</f>
+        <v>0.5865102639296188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <f>C154/(B154+C154)</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>208</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <f>C155/(B155+C155)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>148</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156" s="1">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <f>C156/(B156+C156)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" s="1">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <f>C157/(B157+C157)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <f>C158/(B158+C158)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <f>C159/(B159+C159)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>207</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <f>C160/(B160+C160)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161">
+        <v>20</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45</v>
+      </c>
+      <c r="D161">
+        <f>C161/(B161+C161)</f>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>154</v>
+      </c>
+      <c r="B162">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1">
+        <v>25</v>
+      </c>
+      <c r="D162">
+        <f>C162/(B162+C162)</f>
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>67</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+      <c r="C163" s="1">
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <f>C163/(B163+C163)</f>
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>191</v>
+      </c>
+      <c r="B164">
+        <v>27</v>
+      </c>
+      <c r="C164" s="1">
+        <v>65</v>
+      </c>
+      <c r="D164">
+        <f>C164/(B164+C164)</f>
+        <v>0.70652173913043481</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>98</v>
+      </c>
+      <c r="B165">
+        <v>19</v>
+      </c>
+      <c r="C165" s="1">
+        <v>46</v>
+      </c>
+      <c r="D165">
+        <f>C165/(B165+C165)</f>
+        <v>0.70769230769230773</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166">
+        <v>25</v>
+      </c>
+      <c r="C166" s="1">
+        <v>61</v>
+      </c>
+      <c r="D166">
+        <f>C166/(B166+C166)</f>
+        <v>0.70930232558139539</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>74</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1">
+        <v>24</v>
+      </c>
+      <c r="D167">
+        <f>C167/(B167+C167)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>151</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168" s="1">
+        <v>18</v>
+      </c>
+      <c r="D168">
+        <f>C168/(B168+C168)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <f>C169/(B169+C169)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <f>C170/(B170+C170)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171">
+        <v>11</v>
+      </c>
+      <c r="C171" s="1">
+        <v>42</v>
+      </c>
+      <c r="D171">
+        <f>C171/(B171+C171)</f>
+        <v>0.79245283018867929</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>52</v>
+      </c>
+      <c r="B172">
+        <v>25</v>
+      </c>
+      <c r="C172" s="1">
+        <v>100</v>
+      </c>
+      <c r="D172">
+        <f>C172/(B172+C172)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>26</v>
+      </c>
+      <c r="B173">
+        <v>41</v>
+      </c>
+      <c r="C173" s="1">
+        <v>170</v>
+      </c>
+      <c r="D173">
+        <f>C173/(B173+C173)</f>
+        <v>0.80568720379146919</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>149</v>
+      </c>
+      <c r="B174">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1">
+        <v>29</v>
+      </c>
+      <c r="D174">
+        <f>C174/(B174+C174)</f>
+        <v>0.82857142857142863</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>89</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175" s="1">
+        <v>40</v>
+      </c>
+      <c r="D175">
+        <f>C175/(B175+C175)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>159</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1">
+        <v>30</v>
+      </c>
+      <c r="D176">
+        <f>C176/(B176+C176)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>190</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <f>C177/(B177+C177)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178">
+        <v>16</v>
+      </c>
+      <c r="C178" s="1">
+        <v>85</v>
+      </c>
+      <c r="D178">
+        <f>C178/(B178+C178)</f>
+        <v>0.84158415841584155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179" s="1">
+        <v>30</v>
+      </c>
+      <c r="D179">
+        <f>C179/(B179+C179)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>114</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" s="1">
+        <v>18</v>
+      </c>
+      <c r="D180">
+        <f>C180/(B180+C180)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>119</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181" s="1">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <f>C181/(B181+C181)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182">
+        <v>94</v>
+      </c>
+      <c r="C182" s="1">
+        <v>603</v>
+      </c>
+      <c r="D182">
+        <f>C182/(B182+C182)</f>
+        <v>0.86513629842180773</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>118</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183" s="1">
+        <v>26</v>
+      </c>
+      <c r="D183">
+        <f>C183/(B183+C183)</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>110</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184" s="1">
+        <v>13</v>
+      </c>
+      <c r="D184">
+        <f>C184/(B184+C184)</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>99</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185" s="1">
+        <v>45</v>
+      </c>
+      <c r="D185">
+        <f>C185/(B185+C185)</f>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>140</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1">
+        <v>8</v>
+      </c>
+      <c r="D186">
+        <f>C186/(B186+C186)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>171</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <f>C187/(B187+C187)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>112</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188" s="1">
+        <v>65</v>
+      </c>
+      <c r="D188">
+        <f>C188/(B188+C188)</f>
+        <v>0.8904109589041096</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>115</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" s="1">
+        <v>18</v>
+      </c>
+      <c r="D189">
+        <f>C189/(B189+C189)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>111</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" s="1">
+        <v>19</v>
+      </c>
+      <c r="D190">
+        <f>C190/(B190+C190)</f>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>156</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>10</v>
+      </c>
+      <c r="D191">
+        <f>C191/(B191+C191)</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>165</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1">
+        <v>10</v>
+      </c>
+      <c r="D192">
+        <f>C192/(B192+C192)</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>10</v>
+      </c>
+      <c r="D193">
+        <f>C193/(B193+C193)</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>11</v>
+      </c>
+      <c r="D194">
+        <f>C194/(B194+C194)</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>147</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <f>C195/(B195+C195)</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>95</v>
+      </c>
+      <c r="B196">
+        <v>8</v>
+      </c>
+      <c r="C196" s="1">
+        <v>100</v>
+      </c>
+      <c r="D196">
+        <f>C196/(B196+C196)</f>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>13</v>
+      </c>
+      <c r="D197">
+        <f>C197/(B197+C197)</f>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>58</v>
+      </c>
+      <c r="B198">
+        <v>10</v>
+      </c>
+      <c r="C198" s="1">
+        <v>140</v>
+      </c>
+      <c r="D198">
+        <f>C198/(B198+C198)</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>189</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1">
+        <v>14</v>
+      </c>
+      <c r="D199">
+        <f>C199/(B199+C199)</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>183</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1">
+        <v>15</v>
+      </c>
+      <c r="D200">
+        <f>C200/(B200+C200)</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>131</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" s="1">
+        <v>40</v>
+      </c>
+      <c r="D201">
+        <f>C201/(B201+C201)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>80</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>106</v>
+      </c>
+      <c r="D202">
+        <f>C202/(B202+C202)</f>
+        <v>0.95495495495495497</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1">
+        <v>24</v>
+      </c>
+      <c r="D203">
+        <f>C203/(B203+C203)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>160</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1">
+        <v>31</v>
+      </c>
+      <c r="D204">
+        <f>C204/(B204+C204)</f>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1">
+        <v>31</v>
+      </c>
+      <c r="D205">
+        <f>C205/(B205+C205)</f>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>105</v>
+      </c>
+      <c r="B206">
+        <v>9</v>
+      </c>
+      <c r="C206" s="1">
+        <v>280</v>
+      </c>
+      <c r="D206">
+        <f>C206/(B206+C206)</f>
+        <v>0.96885813148788924</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>134</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" s="1">
+        <v>65</v>
+      </c>
+      <c r="D207">
+        <f>C207/(B207+C207)</f>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208" s="1">
+        <v>138</v>
+      </c>
+      <c r="D208">
+        <f>C208/(B208+C208)</f>
+        <v>0.971830985915493</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>178</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1">
+        <v>47</v>
+      </c>
+      <c r="D209">
+        <f>C209/(B209+C209)</f>
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>188</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1">
+        <v>58</v>
+      </c>
+      <c r="D210">
+        <f>C210/(B210+C210)</f>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>120</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211" s="1">
+        <v>118</v>
+      </c>
+      <c r="D211">
+        <f>C211/(B211+C211)</f>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>172</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1">
+        <v>75</v>
+      </c>
+      <c r="D212">
+        <f>C212/(B212+C212)</f>
+        <v>0.98684210526315785</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>177</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <f>C213/(B213+C213)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B214">
+        <f>SUM(B4:B213)</f>
+        <v>12595</v>
+      </c>
+      <c r="C214">
+        <f>SUM(C4:C213)</f>
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <f>SUM(B4:B105)</f>
+        <v>9046</v>
+      </c>
+      <c r="C218">
+        <f>B218/$B$214</f>
+        <v>0.7182215164747916</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219">
+        <f>SUM(B4:B107)</f>
+        <v>9814</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ref="C219:C235" si="0">B219/$B$214</f>
+        <v>0.77919809448193733</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>4</v>
+      </c>
+      <c r="B220">
+        <f>SUM(B4:B112)</f>
+        <v>10426</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="0"/>
+        <v>0.82778880508138153</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>6</v>
+      </c>
+      <c r="B221">
+        <f>SUM(B4:B117)</f>
+        <v>10713</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="0"/>
+        <v>0.85057562524811436</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <f>SUM(B4:B119)</f>
+        <v>10777</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="0"/>
+        <v>0.85565700674870981</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>10</v>
+      </c>
+      <c r="B223">
+        <f>SUM(B4:B123)</f>
+        <v>11113</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="0"/>
+        <v>0.88233425962683609</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>15</v>
+      </c>
+      <c r="B224">
+        <f>SUM(B4:B129)</f>
+        <v>11415</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="0"/>
+        <v>0.90631202858277093</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>20</v>
+      </c>
+      <c r="B225">
+        <f>SUM(B4:B134)</f>
+        <v>11520</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="0"/>
+        <v>0.91464867010718542</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>25</v>
+      </c>
+      <c r="B226">
+        <f>SUM(B4:B136)</f>
+        <v>11860</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="0"/>
+        <v>0.94164350932909879</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>30</v>
+      </c>
+      <c r="B227">
+        <f>SUM(B4:B137)</f>
+        <v>11862</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="0"/>
+        <v>0.94180230250099251</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>35</v>
+      </c>
+      <c r="B228">
+        <f>SUM(B4:B138)</f>
+        <v>11865</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="0"/>
+        <v>0.94204049225883291</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>40</v>
+      </c>
+      <c r="B229">
+        <f>SUM(B4:B140)</f>
+        <v>11871</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="0"/>
+        <v>0.94251687177451371</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>50</v>
+      </c>
+      <c r="B230">
+        <f>SUM(B4:B150)</f>
+        <v>11992</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="0"/>
+        <v>0.95212385867407701</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>60</v>
+      </c>
+      <c r="B231">
+        <f>SUM(B4:B155)</f>
+        <v>12151</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="0"/>
+        <v>0.96474791583961894</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>70</v>
+      </c>
+      <c r="B232">
+        <f>SUM(B4:B166)</f>
+        <v>12279</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="0"/>
+        <v>0.97491067884080984</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>80</v>
+      </c>
+      <c r="B233">
+        <f>SUM(B4:B172)</f>
+        <v>12331</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="0"/>
+        <v>0.97903930131004369</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>90</v>
+      </c>
+      <c r="B234">
+        <f>SUM(B4:B189)</f>
+        <v>12537</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="0"/>
+        <v>0.99539499801508535</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>95</v>
+      </c>
+      <c r="B235">
+        <f>SUM(B4:B202)</f>
+        <v>12572</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="0"/>
+        <v>0.99817387852322348</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:D213">
+    <sortCondition ref="D4:D213"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>